--- a/Powershell and CLI commands (version 1).xlsb.xlsx
+++ b/Powershell and CLI commands (version 1).xlsb.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/47981ec3fb4f65b7/Technical/Powershell/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{C782762A-46B6-4829-8A80-AC2F904709AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{35BC5B0D-B682-40D4-977C-6818A7F2B5E1}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{C782762A-46B6-4829-8A80-AC2F904709AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B2CAFDFA-A1EF-4737-95FD-20C4F2099DCE}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17745" windowHeight="16200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18045" yWindow="0" windowWidth="20355" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ConnectConnect-AzAccount" sheetId="12" r:id="rId1"/>
+    <sheet name="Connect" sheetId="12" r:id="rId1"/>
     <sheet name="Install" sheetId="9" r:id="rId2"/>
     <sheet name="Get and Find" sheetId="7" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -643,13 +643,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -934,8 +934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5E20D93-8EB1-4CA2-8A5B-704D941A2171}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1015,7 +1015,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -1030,17 +1030,17 @@
       <c r="F2" t="s">
         <v>124</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="14" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
+      <c r="A3" s="12"/>
       <c r="E3" s="13"/>
       <c r="F3" t="s">
         <v>125</v>
       </c>
-      <c r="G3" s="12"/>
+      <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
@@ -1049,189 +1049,189 @@
       <c r="B4" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="14" t="s">
         <v>108</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" t="s">
         <v>114</v>
       </c>
-      <c r="G4" s="12"/>
+      <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" t="s">
         <v>97</v>
       </c>
-      <c r="C5" s="12"/>
+      <c r="C5" s="14"/>
       <c r="E5" s="13"/>
       <c r="F5" t="s">
         <v>126</v>
       </c>
-      <c r="G5" s="12"/>
+      <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
       <c r="B6" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="12"/>
+      <c r="C6" s="14"/>
       <c r="E6" s="13"/>
       <c r="F6" t="s">
         <v>127</v>
       </c>
-      <c r="G6" s="12"/>
+      <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="B7" t="s">
         <v>99</v>
       </c>
-      <c r="C7" s="12"/>
+      <c r="C7" s="14"/>
       <c r="E7" s="13"/>
       <c r="F7" t="s">
         <v>128</v>
       </c>
-      <c r="G7" s="12"/>
+      <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="12"/>
+      <c r="C8" s="14"/>
       <c r="E8" s="13"/>
       <c r="F8" t="s">
         <v>129</v>
       </c>
-      <c r="G8" s="12"/>
+      <c r="G8" s="14"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" t="s">
         <v>101</v>
       </c>
-      <c r="C9" s="12"/>
+      <c r="C9" s="14"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="B10" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="12"/>
+      <c r="C10" s="14"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="12"/>
+      <c r="C11" s="14"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" t="s">
         <v>104</v>
       </c>
-      <c r="C12" s="12"/>
+      <c r="C12" s="14"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="12"/>
+      <c r="C13" s="14"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="12"/>
+      <c r="C14" s="14"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14">
+      <c r="A16" s="12">
         <v>3</v>
       </c>
       <c r="B16" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="14" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
+      <c r="A17" s="12"/>
       <c r="B17" t="s">
         <v>110</v>
       </c>
-      <c r="C17" s="12"/>
+      <c r="C17" s="14"/>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
+      <c r="A18" s="12"/>
       <c r="B18" t="s">
         <v>111</v>
       </c>
-      <c r="C18" s="12"/>
+      <c r="C18" s="14"/>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14">
+      <c r="A20" s="12">
         <v>4</v>
       </c>
       <c r="B20" t="s">
         <v>113</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="14" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
+      <c r="A21" s="12"/>
       <c r="B21" t="s">
         <v>114</v>
       </c>
-      <c r="C21" s="12"/>
+      <c r="C21" s="14"/>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
+      <c r="A22" s="12"/>
       <c r="B22" t="s">
         <v>115</v>
       </c>
-      <c r="C22" s="12"/>
+      <c r="C22" s="14"/>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
+      <c r="A23" s="12"/>
       <c r="B23" t="s">
         <v>116</v>
       </c>
-      <c r="C23" s="12"/>
+      <c r="C23" s="14"/>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
+      <c r="A24" s="12"/>
       <c r="B24" t="s">
         <v>117</v>
       </c>
-      <c r="C24" s="12"/>
+      <c r="C24" s="14"/>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
+      <c r="A25" s="12"/>
       <c r="B25" t="s">
         <v>118</v>
       </c>
-      <c r="C25" s="12"/>
+      <c r="C25" s="14"/>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
+      <c r="A26" s="12"/>
       <c r="B26" t="s">
         <v>119</v>
       </c>
-      <c r="C26" s="12"/>
+      <c r="C26" s="14"/>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
+      <c r="A27" s="12"/>
       <c r="B27" t="s">
         <v>120</v>
       </c>
-      <c r="C27" s="12"/>
+      <c r="C27" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1480,7 +1480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E62B8A5D-2616-4B6E-A768-7EBD8798C27F}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
